--- a/clientTestData/NewUserRegisterationTestData.xlsx
+++ b/clientTestData/NewUserRegisterationTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenxian.kuang/Projects/RallyMochaFramework/clientTestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDA1CF5-7C3E-EE42-8C36-7591B2F98DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384631DE-B098-044A-8B7F-81FCE8BF9396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FirstName</t>
   </si>
@@ -37,37 +37,16 @@
     <t>ContractNumber</t>
   </si>
   <si>
-    <t>FNQOLLMKKZLR</t>
-  </si>
-  <si>
-    <t>FNCITTCWOTUY</t>
-  </si>
-  <si>
-    <t>FNEKRPILVUKA</t>
-  </si>
-  <si>
-    <t>LNKWYGKQNP</t>
-  </si>
-  <si>
-    <t>9900001583</t>
-  </si>
-  <si>
-    <t>9900001581</t>
-  </si>
-  <si>
-    <t>9900001579</t>
-  </si>
-  <si>
     <t>717262</t>
   </si>
   <si>
-    <t>11/01/1998</t>
-  </si>
-  <si>
-    <t>11/01/2003</t>
-  </si>
-  <si>
-    <t>11/01/1976</t>
+    <t>PEYTON</t>
+  </si>
+  <si>
+    <t>HIXSON</t>
+  </si>
+  <si>
+    <t>01/08/2001</t>
   </si>
 </sst>
 </file>
@@ -77,13 +56,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,11 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -481,55 +467,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>468765346</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
